--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00246A6F-947C-E643-9539-D1AB6FB1465A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED8362F-8140-DC41-8F34-F8B4A96EF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="5" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do programa" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>Equivalência Hora-Aula/Crédito</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>O curso de Mestrado Acadêmico em Ciências da Reabilitação objetiva a qualificação do pós-graduando para docência em nível superior e pesquisa por meio do aprimoramento do conhecimento acadêmico e profissional. O curso proporciona ao aluno bases técnico-científicas para a pesquisa e o ensino, tornando-o apto a exercer as atividades da docente de nível universitário e inseri-lo em atividades de pesquisa.</t>
+  </si>
+  <si>
+    <t>O curso de Doutorado Acadêmico em Ciências da Reabilitação objetiva a formação de pesquisadores independentes com capacidade de produzir evidências científicas em Ciências da Reabilitação, bem como atuar na docência superior. O curso visa a intensificação do aprendizado e a consolidação do conhecimento científico, visando formar pesquisadores independentes com capacidade de desenvolver projetos de pesquisa e orientar discentes nos diferentes níveis de formação acadêmica.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -368,40 +377,28 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -410,16 +407,22 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -738,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C087B4DA-805C-6F48-9D56-347B35D34065}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -952,35 +955,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -997,74 +1000,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6A3F2-4940-2449-85A4-6E854F8A0964}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,10 +1085,11 @@
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="72" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1095,8 +1099,11 @@
       <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1106,8 +1113,11 @@
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1116,6 +1126,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1127,13 +1140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EFF77B-F12C-CD4E-BADC-273035218F2C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -1141,54 +1154,54 @@
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>20</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>15</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>15</v>
       </c>
     </row>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED8362F-8140-DC41-8F34-F8B4A96EF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98709E47-2A68-B24A-A370-9F37A1E3B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -255,13 +255,37 @@
   </si>
   <si>
     <t>O curso de Doutorado Acadêmico em Ciências da Reabilitação objetiva a formação de pesquisadores independentes com capacidade de produzir evidências científicas em Ciências da Reabilitação, bem como atuar na docência superior. O curso visa a intensificação do aprendizado e a consolidação do conhecimento científico, visando formar pesquisadores independentes com capacidade de desenvolver projetos de pesquisa e orientar discentes nos diferentes níveis de formação acadêmica.</t>
+  </si>
+  <si>
+    <r>
+      <t>(21) 3882-9797 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ramal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1012</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +341,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -423,6 +460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -928,6 +966,9 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B11" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98709E47-2A68-B24A-A370-9F37A1E3B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46E95B-0445-6044-AC5C-00234BEA83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Rio de Janeiro - RJ</t>
   </si>
   <si>
-    <t>URL:</t>
-  </si>
-  <si>
     <t>Fax:</t>
   </si>
   <si>
@@ -257,35 +254,23 @@
     <t>O curso de Doutorado Acadêmico em Ciências da Reabilitação objetiva a formação de pesquisadores independentes com capacidade de produzir evidências científicas em Ciências da Reabilitação, bem como atuar na docência superior. O curso visa a intensificação do aprendizado e a consolidação do conhecimento científico, visando formar pesquisadores independentes com capacidade de desenvolver projetos de pesquisa e orientar discentes nos diferentes níveis de formação acadêmica.</t>
   </si>
   <si>
-    <r>
-      <t>(21) 3882-9797 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ramal: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1012</t>
-    </r>
+    <t>(21) 3882-9797 Ramal: 2012</t>
+  </si>
+  <si>
+    <t>URL Mestrado:</t>
+  </si>
+  <si>
+    <t>URL Doutorado:</t>
+  </si>
+  <si>
+    <t>URL Pós-doutorado:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,13 +327,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -793,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -944,38 +922,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1005,27 +987,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1050,63 +1032,63 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -1132,44 +1114,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1193,18 +1175,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="16">
         <v>24</v>
@@ -1215,7 +1197,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <v>20</v>
@@ -1226,7 +1208,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -1237,7 +1219,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="17">
         <v>15</v>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46E95B-0445-6044-AC5C-00234BEA83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B31129-34C9-3446-8B0B-3C4BBF17C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -191,15 +191,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>https://www.unisuam.edu.br/mestrado/mestrado-academico-em-ciencias-da-reabilitacao</t>
-  </si>
-  <si>
-    <t>https://www.unisuam.edu.br/doutorado-academico-em-ciencias-da-reabilitacao</t>
-  </si>
-  <si>
-    <t>https://www.unisuam.edu.br/pos-doutorado-academico-em-ciencias-da-reabilitacao</t>
-  </si>
-  <si>
     <t>01/01/2014</t>
   </si>
   <si>
@@ -257,20 +248,17 @@
     <t>(21) 3882-9797 Ramal: 2012</t>
   </si>
   <si>
-    <t>URL Mestrado:</t>
-  </si>
-  <si>
-    <t>URL Doutorado:</t>
-  </si>
-  <si>
-    <t>URL Pós-doutorado:</t>
+    <t>URL:</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/programa-pos-graduacao-ciencias-da-reabilitacao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,13 +300,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -389,9 +370,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -419,10 +397,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,14 +409,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -853,7 +834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEFDB3-CF4D-0C48-9415-B0841428DB82}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,49 +903,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{6C82B997-1418-C543-A927-13EE49A8302A}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{BC16BF0B-808E-B148-A50E-2EDEFF1BCDC0}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{C38AEC86-BB9D-1C41-9E9E-FDAAE30EB625}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -979,7 +942,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="4"/>
@@ -989,7 +952,7 @@
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1003,7 +966,7 @@
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1024,73 +987,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1108,7 +1071,7 @@
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72" style="21" customWidth="1"/>
+    <col min="4" max="4" width="72" style="20" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -1122,8 +1085,8 @@
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>68</v>
+      <c r="D1" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1136,8 +1099,8 @@
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>69</v>
+      <c r="D2" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -1150,8 +1113,8 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>70</v>
+      <c r="D3" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1168,8 +1131,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -1177,54 +1140,54 @@
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="15">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="16">
-        <v>24</v>
-      </c>
-      <c r="C2" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="17">
-        <v>20</v>
-      </c>
-      <c r="C3" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>15</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>15</v>
       </c>
     </row>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B31129-34C9-3446-8B0B-3C4BBF17C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D3CCB-8EF8-0342-97AA-7716EAAFBB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados do programa" sheetId="1" r:id="rId1"/>
-    <sheet name="Endereço" sheetId="2" r:id="rId2"/>
-    <sheet name="AC" sheetId="3" r:id="rId3"/>
-    <sheet name="LP" sheetId="5" r:id="rId4"/>
-    <sheet name="Cursos" sheetId="4" r:id="rId5"/>
-    <sheet name="Créditos" sheetId="6" r:id="rId6"/>
+    <sheet name="Endereço" sheetId="2" r:id="rId1"/>
+    <sheet name="AC" sheetId="3" r:id="rId2"/>
+    <sheet name="LP" sheetId="5" r:id="rId3"/>
+    <sheet name="Cursos" sheetId="4" r:id="rId4"/>
+    <sheet name="Créditos" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,62 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Dados do Programa</t>
   </si>
   <si>
-    <t>Código:</t>
-  </si>
-  <si>
-    <t>31063012002P4</t>
-  </si>
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>Ciências da Reabilitação</t>
-  </si>
-  <si>
-    <t>Nome inglês:</t>
-  </si>
-  <si>
-    <t>Rehabilitation Sciences</t>
-  </si>
-  <si>
-    <t>Coordenador(a):</t>
-  </si>
-  <si>
-    <t>ARTHUR DE SA FERREIRA</t>
-  </si>
-  <si>
-    <t>Área Básica:</t>
-  </si>
-  <si>
-    <t>FISIOTERAPIA E TERAPIA OCUPACIONAL</t>
-  </si>
-  <si>
-    <t>Área de Avaliação:</t>
-  </si>
-  <si>
-    <t>EDUCAÇÃO FÍSICA </t>
-  </si>
-  <si>
-    <t>Data de recomendação:</t>
-  </si>
-  <si>
-    <t>Modalidade:</t>
-  </si>
-  <si>
-    <t>ACADÊMICO</t>
-  </si>
-  <si>
-    <t>Regime Letivo:</t>
-  </si>
-  <si>
-    <t>SEMESTRAL</t>
-  </si>
-  <si>
     <t>CEP:</t>
   </si>
   <si>
@@ -168,12 +116,6 @@
   </si>
   <si>
     <t>Endereço</t>
-  </si>
-  <si>
-    <t>Dados</t>
-  </si>
-  <si>
-    <t>28/09/2009</t>
   </si>
   <si>
     <t>Início</t>
@@ -735,108 +677,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C087B4DA-805C-6F48-9D56-347B35D34065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEFDB3-CF4D-0C48-9415-B0841428DB82}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEFDB3-CF4D-0C48-9415-B0841428DB82}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -850,28 +694,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>94</v>
@@ -879,50 +723,50 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19485AA-7532-9941-90A6-F9B173001F2C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -950,27 +794,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FA31A-0F3D-8044-9E1E-B87DD28B9646}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -995,63 +839,63 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -1060,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6A3F2-4940-2449-85A4-6E854F8A0964}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1077,44 +921,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EFF77B-F12C-CD4E-BADC-273035218F2C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1138,18 +982,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B2" s="15">
         <v>24</v>
@@ -1160,7 +1004,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B3" s="16">
         <v>20</v>
@@ -1171,7 +1015,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -1182,7 +1026,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B5" s="16">
         <v>15</v>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D3CCB-8EF8-0342-97AA-7716EAAFBB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3200EA3-A26C-9544-990B-E5DC8D11BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="AC" sheetId="3" r:id="rId2"/>
     <sheet name="LP" sheetId="5" r:id="rId3"/>
     <sheet name="Cursos" sheetId="4" r:id="rId4"/>
-    <sheet name="Créditos" sheetId="6" r:id="rId5"/>
+    <sheet name="Egressos" sheetId="7" r:id="rId5"/>
+    <sheet name="Créditos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -194,6 +195,25 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/programa-pos-graduacao-ciencias-da-reabilitacao</t>
+  </si>
+  <si>
+    <t>- Competência de ensino
+- Mobilização do conhecimento e tradução do conhecimento
+- Pensamento crítico e criativo
+- Integridade e conduta ética
+- Comunicação e habilidades interpessoais
+- Responsabilidades sociais e cívicas
+- Gestão de investigação
+- Liderança
+- Gestão de carreira</t>
+  </si>
+  <si>
+    <t>- Competência de ensino
+- Mobilização do conhecimento e tradução do conhecimento
+- Pensamento crítico e criativo
+- Integridade e conduta ética
+- Comunicação e habilidades interpessoais
+- Responsabilidades sociais e cívicas</t>
   </si>
 </sst>
 </file>
@@ -967,6 +987,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2141F-367D-4648-AF56-875562E2D736}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EFF77B-F12C-CD4E-BADC-273035218F2C}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3200EA3-A26C-9544-990B-E5DC8D11BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0227D-92BB-F449-9F84-3AD92D4F3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="3" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Endereço" sheetId="2" r:id="rId1"/>
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEFDB3-CF4D-0C48-9415-B0841428DB82}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6A3F2-4940-2449-85A4-6E854F8A0964}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -953,7 +953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -964,10 +964,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0227D-92BB-F449-9F84-3AD92D4F3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C71CAF-14CA-9D4E-A9C4-F7EDE8B9E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="3" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Endereço" sheetId="2" r:id="rId1"/>
@@ -402,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6A3F2-4940-2449-85A4-6E854F8A0964}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2141F-367D-4648-AF56-875562E2D736}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C71CAF-14CA-9D4E-A9C4-F7EDE8B9E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42EFFF-14D7-F449-92E3-9EBC8E5D736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -197,23 +197,25 @@
     <t>https://www.unisuam.edu.br/programa-pos-graduacao-ciencias-da-reabilitacao</t>
   </si>
   <si>
-    <t>- Competência de ensino
-- Mobilização do conhecimento e tradução do conhecimento
-- Pensamento crítico e criativo
-- Integridade e conduta ética
-- Comunicação e habilidades interpessoais
-- Responsabilidades sociais e cívicas
-- Gestão de investigação
-- Liderança
-- Gestão de carreira</t>
-  </si>
-  <si>
-    <t>- Competência de ensino
-- Mobilização do conhecimento e tradução do conhecimento
-- Pensamento crítico e criativo
-- Integridade e conduta ética
-- Comunicação e habilidades interpessoais
-- Responsabilidades sociais e cívicas</t>
+    <t xml:space="preserve">1. Competência de ensino
+2. Mobilização do conhecimento e tradução do conhecimento
+3. Pensamento crítico e criativo
+4. Integridade e conduta ética
+5. Comunicação e habilidades interpessoais
+6. Responsabilidades sociais e cívicas
+7. Gestão de investigação
+8. Liderança
+9. Gestão de carreira
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Competência de ensino
+2. Mobilização do conhecimento e tradução do conhecimento
+3. Pensamento crítico e criativo
+4. Integridade e conduta ética
+5. Comunicação e habilidades interpessoais
+6. Responsabilidades sociais e cívicas
+</t>
   </si>
 </sst>
 </file>
@@ -402,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,7 +1017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42EFFF-14D7-F449-92E3-9EBC8E5D736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7A9DF-21F8-D541-BC28-A3C41C8971DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="2" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Endereço" sheetId="2" r:id="rId1"/>
@@ -128,16 +128,10 @@
     <t>01/01/2010</t>
   </si>
   <si>
-    <t>Analisar os processos envolvidos nas respostas funcionais, os métodos e técnicas de avaliação, bem como a investigação da eficácia de intervenções relacionadas à prevenção e reabilitação física dos sistemas orgânicos no âmbito individual e coletivo.</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
     <t>01/01/2014</t>
-  </si>
-  <si>
-    <t>Estudo dos aspectos fisiológicos, biomecânicos, funcionais e sociais relacionados à prática de esportes, incluindo os adaptados, e a otimização do desempenho, abrangendo praticantes recreacionais e profissionais em todas as faixas etárias. Estudo dos fatores de risco e proteção de lesões advindas da prática esportiva e dos efeitos de intervenções para sua prevenção, recuperação e reabilitação em diversas populações.</t>
   </si>
   <si>
     <t>REABILITAÇÃO NO ESPORTE E NO ESPORTE ADAPTADO</t>
@@ -216,6 +210,12 @@
 5. Comunicação e habilidades interpessoais
 6. Responsabilidades sociais e cívicas
 </t>
+  </si>
+  <si>
+    <t>Analisar os processos envolvidos nas respostas funcionais, investigando métodos e técnicas de avaliação, assim como os efeitos de intervenções relacionadas à prevenção de condições relacionadas à saúde, desempenho e capacidade funcional, funcionalidade (atividade e participação), e reabilitação no contexto clínico e no esporte. Nesse contexto, desenvolver métodos e processos inovadores para avaliação e intervenção em reabilitação.</t>
+  </si>
+  <si>
+    <t>Estudo dos aspectos fisiológicos, biomecânicos, funcionais, psicoemocionais e sociais relacionados à prática de esportes (convencional e adaptado), e a otimização do desempenho esportivo, abrangendo praticantes recreacionais e profissionais em todas as faixas etárias. Estudo dos fatores de risco e proteção de lesões advindas da prática esportiva e dos efeitos de intervenções para sua prevenção, recuperação e reabilitação em diversas populações.</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -550,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,10 +769,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>26</v>
@@ -828,12 +828,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FA31A-0F3D-8044-9E1E-B87DD28B9646}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -861,10 +861,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>26</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -886,38 +886,38 @@
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -952,7 +952,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2141F-367D-4648-AF56-875562E2D736}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1014,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>24</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="15">
         <v>24</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="16">
         <v>20</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16">
         <v>15</v>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7A9DF-21F8-D541-BC28-A3C41C8971DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A07BB-4F83-E14D-81DD-E746BCECA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="2" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Endereço" sheetId="2" r:id="rId1"/>
@@ -191,31 +191,29 @@
     <t>https://www.unisuam.edu.br/programa-pos-graduacao-ciencias-da-reabilitacao</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Competência de ensino
-2. Mobilização do conhecimento e tradução do conhecimento
-3. Pensamento crítico e criativo
-4. Integridade e conduta ética
-5. Comunicação e habilidades interpessoais
-6. Responsabilidades sociais e cívicas
-7. Gestão de investigação
-8. Liderança
-9. Gestão de carreira
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Competência de ensino
-2. Mobilização do conhecimento e tradução do conhecimento
-3. Pensamento crítico e criativo
-4. Integridade e conduta ética
-5. Comunicação e habilidades interpessoais
-6. Responsabilidades sociais e cívicas
-</t>
-  </si>
-  <si>
     <t>Analisar os processos envolvidos nas respostas funcionais, investigando métodos e técnicas de avaliação, assim como os efeitos de intervenções relacionadas à prevenção de condições relacionadas à saúde, desempenho e capacidade funcional, funcionalidade (atividade e participação), e reabilitação no contexto clínico e no esporte. Nesse contexto, desenvolver métodos e processos inovadores para avaliação e intervenção em reabilitação.</t>
   </si>
   <si>
     <t>Estudo dos aspectos fisiológicos, biomecânicos, funcionais, psicoemocionais e sociais relacionados à prática de esportes (convencional e adaptado), e a otimização do desempenho esportivo, abrangendo praticantes recreacionais e profissionais em todas as faixas etárias. Estudo dos fatores de risco e proteção de lesões advindas da prática esportiva e dos efeitos de intervenções para sua prevenção, recuperação e reabilitação em diversas populações.</t>
+  </si>
+  <si>
+    <t>Competência de ensino
+Mobilização do conhecimento e tradução do conhecimento
+Pensamento crítico e criativo
+Integridade e conduta ética
+Comunicação e habilidades interpessoais
+Responsabilidades sociais e cívicas
+Gestão de investigação
+Liderança
+Gestão de carreira</t>
+  </si>
+  <si>
+    <t>Competência de ensino
+Mobilização do conhecimento e tradução do conhecimento
+Pensamento crítico e criativo
+Integridade e conduta ética
+Comunicação e habilidades interpessoais
+Responsabilidades sociais e cívicas</t>
   </si>
 </sst>
 </file>
@@ -404,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -550,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -848,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FA31A-0F3D-8044-9E1E-B87DD28B9646}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -914,7 +912,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
@@ -992,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2141F-367D-4648-AF56-875562E2D736}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1017,7 +1015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1028,10 +1026,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A07BB-4F83-E14D-81DD-E746BCECA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D1210F-ABE0-E34A-BDEE-AAFED8BD4698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="AC" sheetId="3" r:id="rId2"/>
     <sheet name="LP" sheetId="5" r:id="rId3"/>
     <sheet name="Cursos" sheetId="4" r:id="rId4"/>
-    <sheet name="Egressos" sheetId="7" r:id="rId5"/>
+    <sheet name="Perfil de Egressos" sheetId="7" r:id="rId5"/>
     <sheet name="Créditos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -214,6 +214,9 @@
 Integridade e conduta ética
 Comunicação e habilidades interpessoais
 Responsabilidades sociais e cívicas</t>
+  </si>
+  <si>
+    <t>Perfil de Egressos</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">

--- a/PPG/Dados Cadastrais.xlsx
+++ b/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D1210F-ABE0-E34A-BDEE-AAFED8BD4698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5DAB6-3E42-3247-B153-395D4ECB200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" activeTab="4" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
+    <workbookView xWindow="1140" yWindow="980" windowWidth="27240" windowHeight="16400" xr2:uid="{642CADC4-4328-2B41-88AC-AEE2F7D83BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Endereço" sheetId="2" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>URL:</t>
   </si>
   <si>
-    <t>https://www.unisuam.edu.br/programa-pos-graduacao-ciencias-da-reabilitacao</t>
-  </si>
-  <si>
     <t>Analisar os processos envolvidos nas respostas funcionais, investigando métodos e técnicas de avaliação, assim como os efeitos de intervenções relacionadas à prevenção de condições relacionadas à saúde, desempenho e capacidade funcional, funcionalidade (atividade e participação), e reabilitação no contexto clínico e no esporte. Nesse contexto, desenvolver métodos e processos inovadores para avaliação e intervenção em reabilitação.</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Perfil de Egressos</t>
+  </si>
+  <si>
+    <t>https://hs.unisuam.edu.br/ppgcr-ciencias-da-reabilitacao</t>
   </si>
 </sst>
 </file>
@@ -405,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BEFDB3-CF4D-0C48-9415-B0841428DB82}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -773,7 +773,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -915,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2141F-367D-4648-AF56-875562E2D736}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1015,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
